--- a/biology/Médecine/VivaSanté/VivaSanté.xlsx
+++ b/biology/Médecine/VivaSanté/VivaSanté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VivaSant%C3%A9</t>
+          <t>VivaSanté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-VivaSanté est un groupe familial spécialisé dans le médical[2], propriétaire entre autres de Laboratoire Urgo, de Juvamine, d'Herbesan et de Catalgine[3]. Le groupe se diversifie en prenant le contrôle de la société Fly-n-Sense[2],[4].
+VivaSanté est un groupe familial spécialisé dans le médical, propriétaire entre autres de Laboratoire Urgo, de Juvamine, d'Herbesan et de Catalgine. Le groupe se diversifie en prenant le contrôle de la société Fly-n-Sense,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VivaSant%C3%A9</t>
+          <t>VivaSanté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits phares de la marque sont Mercurochrome et Juvamine notamment[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits phares de la marque sont Mercurochrome et Juvamine notamment.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VivaSant%C3%A9</t>
+          <t>VivaSanté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mai 2015, Vivasanté devient Urgo[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2015, Vivasanté devient Urgo.
 </t>
         </is>
       </c>
